--- a/Assets/00.Data/Excel/SubMonsterTable.xlsx
+++ b/Assets/00.Data/Excel/SubMonsterTable.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssy12\Desktop\팀 프로젝트\Yggdrasil\ExcelData\Data_Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BFD5B7-73FF-46D9-8ADC-E1EDECD6713B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D8817-C8A5-4BBC-BD99-20A9527941E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3090" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SubMonsterTable" sheetId="2" r:id="rId1"/>
+    <sheet name="SubMonster_Table" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SubMonsterTable!$B$5:$M$105</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">SubMonsterTable!$A$1:$X$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SubMonster_Table!$B$5:$M$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">SubMonster_Table!$A$1:$X$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -820,7 +820,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="F2" sqref="F2:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>

--- a/Assets/00.Data/Excel/SubMonsterTable.xlsx
+++ b/Assets/00.Data/Excel/SubMonsterTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ssy12\Desktop\팀 프로젝트\Yggdrasil\ExcelData\Data_Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3D8817-C8A5-4BBC-BD99-20A9527941E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08BC50-C332-4677-B188-38B934F44423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SubMonster_Table" sheetId="2" r:id="rId1"/>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>엘프</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>wolf</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -133,6 +129,10 @@
   </si>
   <si>
     <t>Prefb</t>
+  </si>
+  <si>
+    <t>사신</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -181,6 +181,8 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial Unicode MS"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <b/>
@@ -819,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:I2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -914,7 +916,7 @@
         <v>14</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>12</v>
@@ -957,7 +959,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>23</v>
@@ -1002,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>3</v>
@@ -1029,7 +1031,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="13">
         <v>141001</v>
@@ -1069,10 +1071,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="13">
         <v>141002</v>

--- a/Assets/00.Data/Excel/SubMonsterTable.xlsx
+++ b/Assets/00.Data/Excel/SubMonsterTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\Yggdrasil\Assets\00.Data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F08BC50-C332-4677-B188-38B934F44423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{719B43BC-FEE2-4588-9498-78D39350829C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -822,7 +822,7 @@
   <dimension ref="A1:S1000"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1046,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="13">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J6" s="13">
         <v>941001</v>
